--- a/skrypty/result/2012-2013/small_vector.xlsx
+++ b/skrypty/result/2012-2013/small_vector.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Nazwa</t>
   </si>
@@ -107,6 +107,27 @@
   </si>
   <si>
     <t>Wartość rynkowa</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>ADVADIS</t>
+  </si>
+  <si>
+    <t>AGORA</t>
+  </si>
+  <si>
+    <t>AGROWILL</t>
+  </si>
+  <si>
+    <t>ALCHEMIA</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>ALTERCO</t>
   </si>
 </sst>
 </file>
@@ -447,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,6 +569,671 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>-16.5188</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-14.058</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-14.1809</v>
+      </c>
+      <c r="H2">
+        <v>0.1889</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>-48.2489</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>-50.1146</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>12.9624</v>
+      </c>
+      <c r="Y2">
+        <v>32.4263</v>
+      </c>
+      <c r="Z2">
+        <v>-15.1324</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>-4.188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>6.2368</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>6.2369</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-9.7638</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3.3564</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>6.3299</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>12.5045</v>
+      </c>
+      <c r="Y3">
+        <v>-80.128</v>
+      </c>
+      <c r="Z3">
+        <v>28.0114</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>5.7887</v>
+      </c>
+      <c r="AC3">
+        <v>380.6269</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>4.0538</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4.0542</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5.2306</v>
+      </c>
+      <c r="H4">
+        <v>3.7967</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>-79.14060000000001</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>10.4443</v>
+      </c>
+      <c r="P4">
+        <v>5.8908</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>52.1739</v>
+      </c>
+      <c r="S4">
+        <v>8142.8571</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>3.951</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>-2.9816</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-76.8382</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>-11.7061</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>-22.8804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>-1.7711</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-1.7709</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.851</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4.035</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>4.3698</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>-53.648</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>-10.6808</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>141.8838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>-22.3439</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-8.7759</v>
+      </c>
+      <c r="E6">
+        <v>63.0866</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-22.344</v>
+      </c>
+      <c r="H6">
+        <v>104.5974</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>890.6604</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>4.8667</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>-23.5491</v>
+      </c>
+      <c r="Y6">
+        <v>521.4029</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>-35.8581</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>-8.8514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>-1.6542</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-9.799300000000001</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-104.0928</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>82.09610000000001</v>
+      </c>
+      <c r="P7">
+        <v>-9.372400000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>65.5853</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>-24.4134</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>-50.2382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>41.4432</v>
+      </c>
+      <c r="H8">
+        <v>27.3714</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>361.6978</v>
+      </c>
+      <c r="AB8">
+        <v>58.6244</v>
+      </c>
+      <c r="AC8">
+        <v>25.7736</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>-15.7658</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/skrypty/result/2012-2013/small_vector.xlsx
+++ b/skrypty/result/2012-2013/small_vector.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Nazwa</t>
   </si>
@@ -110,24 +110,6 @@
   </si>
   <si>
     <t>ACTION</t>
-  </si>
-  <si>
-    <t>ADVADIS</t>
-  </si>
-  <si>
-    <t>AGORA</t>
-  </si>
-  <si>
-    <t>AGROWILL</t>
-  </si>
-  <si>
-    <t>ALCHEMIA</t>
-  </si>
-  <si>
-    <t>ALTA</t>
-  </si>
-  <si>
-    <t>ALTERCO</t>
   </si>
 </sst>
 </file>
@@ -468,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,576 +646,6 @@
         <v>-4.188</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>6.2368</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>6.2369</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>-9.7638</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>3.3564</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>6.3299</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>12.5045</v>
-      </c>
-      <c r="Y3">
-        <v>-80.128</v>
-      </c>
-      <c r="Z3">
-        <v>28.0114</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>5.7887</v>
-      </c>
-      <c r="AC3">
-        <v>380.6269</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>4.0538</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>4.0542</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>5.2306</v>
-      </c>
-      <c r="H4">
-        <v>3.7967</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>-79.14060000000001</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>10.4443</v>
-      </c>
-      <c r="P4">
-        <v>5.8908</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>52.1739</v>
-      </c>
-      <c r="S4">
-        <v>8142.8571</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>3.951</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>-2.9816</v>
-      </c>
-      <c r="Y4">
-        <v>15</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>-76.8382</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>-11.7061</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>-22.8804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>-1.7711</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-1.7709</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1.851</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>4.035</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>4.3698</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>-53.648</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>-10.6808</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>141.8838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>-22.3439</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-8.7759</v>
-      </c>
-      <c r="E6">
-        <v>63.0866</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-22.344</v>
-      </c>
-      <c r="H6">
-        <v>104.5974</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>890.6604</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>4.8667</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>-23.5491</v>
-      </c>
-      <c r="Y6">
-        <v>521.4029</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>-35.8581</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>-8.8514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>-1.6542</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-9.799300000000001</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>-104.0928</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>82.09610000000001</v>
-      </c>
-      <c r="P7">
-        <v>-9.372400000000001</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>65.5853</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>-24.4134</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>-50.2382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>41.4432</v>
-      </c>
-      <c r="H8">
-        <v>27.3714</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>361.6978</v>
-      </c>
-      <c r="AB8">
-        <v>58.6244</v>
-      </c>
-      <c r="AC8">
-        <v>25.7736</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>-15.7658</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
